--- a/IR/空调红外.xlsx
+++ b/IR/空调红外.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Develop\Code\python\My_IOT_Project\IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{361C2DD1-31F1-4F2C-8F39-6C0FD2987762}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{237ADC92-5CC3-4477-8A43-164014517918}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7455" xr2:uid="{B469431B-2AEB-4446-856D-F9602E88A4CE}"/>
   </bookViews>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{CF9AC19A-6656-488E-AC38-DC8AE87A864E}">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{BB860E44-7497-49DF-9FB5-7239F01ECD11}">
       <text>
         <r>
           <rPr>
@@ -169,7 +169,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Shangbin Zhang:</t>
@@ -179,11 +178,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-与开关有关</t>
+温度校验位，开的比关的多100</t>
         </r>
       </text>
     </comment>
@@ -343,11 +341,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF0ABF0-B3FB-4AA2-B44A-90E1ED67786F}">
   <dimension ref="A1:AJ60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:H30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7:Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,87 +677,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
       <c r="AA1" s="1"/>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
@@ -870,19 +868,19 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="J4">

--- a/IR/空调红外.xlsx
+++ b/IR/空调红外.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Develop\Code\python\My_IOT_Project\IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{237ADC92-5CC3-4477-8A43-164014517918}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{244A894D-EBF4-4B6D-9AC1-D077ECA24F7E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7455" xr2:uid="{B469431B-2AEB-4446-856D-F9602E88A4CE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="data" localSheetId="0">Sheet1!$A$3:$AJ$62</definedName>
+    <definedName name="data" localSheetId="0">Sheet1!$A$3:$AJ$80</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -239,19 +239,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>26度开：制冷高风</t>
+    <t>16度开：制冷高风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26度关：制冷高风</t>
+    <t>16度关：制冷高风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26度开：制冷高风(升温到)</t>
+    <t>16度开：制冷高风(升温到)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26度开：制冷高风(降温到)</t>
+    <t>16度开：制冷高风(降温到)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,6 +343,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF0ABF0-B3FB-4AA2-B44A-90E1ED67786F}">
-  <dimension ref="A1:AJ60"/>
+  <dimension ref="A1:AJ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7:Y9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,87 +680,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
       <c r="AA1" s="1"/>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
@@ -809,30 +812,6 @@
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
       <c r="AB3">
         <v>1</v>
       </c>
@@ -872,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -896,40 +875,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -944,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
@@ -1005,30 +960,6 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
       <c r="AB5">
         <v>0</v>
       </c>
@@ -1103,30 +1034,6 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
       <c r="AB6">
         <v>0</v>
       </c>
@@ -1201,30 +1108,6 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
       <c r="AB7">
         <v>0</v>
       </c>
@@ -1299,30 +1182,6 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
       <c r="AB8">
         <v>0</v>
       </c>
@@ -1397,30 +1256,6 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
       <c r="AB9">
         <v>0</v>
       </c>
@@ -1495,30 +1330,6 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
       <c r="AB10">
         <v>0</v>
       </c>
@@ -1593,30 +1404,6 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
       <c r="AB11">
         <v>0</v>
       </c>
@@ -1691,30 +1478,6 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
       <c r="AB12">
         <v>0</v>
       </c>
@@ -1789,30 +1552,6 @@
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
       <c r="AB13">
         <v>0</v>
       </c>
@@ -1887,30 +1626,6 @@
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
       <c r="AB14">
         <v>1</v>
       </c>
@@ -1950,13 +1665,13 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1974,41 +1689,17 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
       <c r="AB15">
         <v>1</v>
       </c>
@@ -2022,91 +1713,155 @@
         <v>1</v>
       </c>
       <c r="AF15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>1</v>
       </c>
       <c r="AH15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -2116,19 +1871,19 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2140,19 +1895,19 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2164,19 +1919,19 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -2188,19 +1943,19 @@
         <v>1</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18">
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18">
         <v>1</v>
@@ -2208,19 +1963,19 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2229,22 +1984,22 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2253,22 +2008,22 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2277,22 +2032,22 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -2301,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
@@ -2419,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2443,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2467,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2491,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -2517,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2541,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2565,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2589,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -2615,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2639,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2663,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2687,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -2713,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2737,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2761,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2785,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -2909,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2957,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2981,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -3007,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3055,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -3079,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -3090,13 +2845,13 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3114,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3162,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3191,195 +2946,195 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29">
         <v>1</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>1</v>
-      </c>
-      <c r="AC30">
-        <v>1</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
@@ -3390,19 +3145,19 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3414,19 +3169,19 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -3438,19 +3193,19 @@
         <v>1</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33">
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33">
         <v>1</v>
@@ -3462,19 +3217,19 @@
         <v>1</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33">
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33">
         <v>1</v>
@@ -3482,13 +3237,13 @@
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3497,22 +3252,22 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -3521,22 +3276,22 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3545,22 +3300,22 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -3569,13 +3324,13 @@
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34">
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
@@ -3693,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3717,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3741,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3765,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH36">
         <v>0</v>
@@ -3791,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3815,10 +3570,10 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3839,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -3863,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI37">
         <v>0</v>
@@ -3889,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3913,10 +3668,10 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3937,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -3961,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38">
         <v>0</v>
@@ -3987,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4011,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -4035,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -4059,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="AG39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39">
         <v>0</v>
@@ -4183,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4231,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -4255,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH41">
         <v>0</v>
@@ -4281,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4329,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -4353,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="AG42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42">
         <v>0</v>
@@ -4364,13 +4119,13 @@
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -4388,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -4436,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -4465,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4489,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -4501,19 +4256,19 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -4537,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44">
         <v>0</v>
@@ -4558,102 +4313,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>1</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>1</v>
-      </c>
-      <c r="AC45">
-        <v>1</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>1</v>
-      </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <v>1</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
@@ -4664,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4673,10 +4428,10 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4688,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4697,10 +4452,10 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -4712,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -4721,10 +4476,10 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48">
         <v>1</v>
@@ -4736,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48">
         <v>0</v>
@@ -4745,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI48">
         <v>1</v>
@@ -4756,100 +4511,100 @@
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
       </c>
       <c r="AG49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH49">
         <v>0</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
@@ -4967,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4991,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -5015,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -5039,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="AG51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH51">
         <v>0</v>
@@ -5065,10 +4820,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5089,10 +4844,10 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -5113,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5137,10 +4892,10 @@
         <v>0</v>
       </c>
       <c r="AG52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI52">
         <v>0</v>
@@ -5163,10 +4918,10 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5187,10 +4942,10 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -5211,10 +4966,10 @@
         <v>0</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5235,10 +4990,10 @@
         <v>0</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI53">
         <v>0</v>
@@ -5261,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5285,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -5309,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -5333,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="AG54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH54">
         <v>0</v>
@@ -5457,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5505,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -5529,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH56">
         <v>0</v>
@@ -5555,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5603,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -5627,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH57">
         <v>0</v>
@@ -5638,13 +5393,13 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -5662,13 +5417,13 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -5710,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -5739,13 +5494,13 @@
         <v>1</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -5763,37 +5518,37 @@
         <v>1</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59">
         <v>0</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W59">
         <v>0</v>
@@ -5811,13 +5566,13 @@
         <v>1</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59">
         <v>0</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5832,101 +5587,1277 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>1</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>1</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>1</v>
-      </c>
-      <c r="AC60">
-        <v>1</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-      <c r="AF60">
-        <v>1</v>
-      </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-      <c r="AI60">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AB62">
+        <v>1</v>
+      </c>
+      <c r="AC62">
+        <v>1</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>1</v>
+      </c>
+      <c r="AI62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+      <c r="AB63">
+        <v>1</v>
+      </c>
+      <c r="AC63">
+        <v>1</v>
+      </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>1</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>1</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>1</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>1</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>1</v>
+      </c>
+      <c r="AC74">
+        <v>1</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>1</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
         <v>0</v>
       </c>
     </row>
@@ -5938,8 +6869,20 @@
     <mergeCell ref="AB1:AI2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AT3:BA15 A3:AR15 BC3:BJ15 AJ17 A18:AJ62">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="AT3:BA15 A3:AR15 BC3:BJ15 AJ17 A18:AJ80">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:AI17">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
